--- a/data/trans_orig/P36B13_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36B13_R-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>26185</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17923</v>
+        <v>17283</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37636</v>
+        <v>37790</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06130156421075279</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04195983272751146</v>
+        <v>0.04046168764793139</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08811082524140657</v>
+        <v>0.08847057956085341</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -763,19 +763,19 @@
         <v>15619</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9685</v>
+        <v>9417</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24937</v>
+        <v>24074</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04530719818457815</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02809548153597955</v>
+        <v>0.02731814940000876</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07233768554022897</v>
+        <v>0.06983385653371155</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>42</v>
@@ -784,19 +784,19 @@
         <v>41803</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31259</v>
+        <v>30854</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56640</v>
+        <v>55040</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05415822081502291</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04049749083345005</v>
+        <v>0.03997318532742384</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07337984957424488</v>
+        <v>0.07130709946547145</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>400958</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>389507</v>
+        <v>389353</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>409220</v>
+        <v>409860</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9386984357892472</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9118891747585934</v>
+        <v>0.9115294204391465</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9580401672724885</v>
+        <v>0.9595383123520685</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>314</v>
@@ -834,19 +834,19 @@
         <v>329112</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>319794</v>
+        <v>320657</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>335046</v>
+        <v>335314</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9546928018154218</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9276623144597708</v>
+        <v>0.9301661434662882</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9719045184640205</v>
+        <v>0.9726818505999912</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>682</v>
@@ -855,19 +855,19 @@
         <v>730071</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>715234</v>
+        <v>716834</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>740615</v>
+        <v>741020</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9458417791849771</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9266201504257547</v>
+        <v>0.9286929005345288</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.95950250916655</v>
+        <v>0.9600268146725764</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>34548</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24811</v>
+        <v>24678</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47058</v>
+        <v>46736</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0925607505621964</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06647341294003656</v>
+        <v>0.06611626042767292</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1260752998857343</v>
+        <v>0.1252141214298642</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -980,19 +980,19 @@
         <v>30457</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21211</v>
+        <v>20870</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42426</v>
+        <v>41587</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08254043360491904</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05748427576903078</v>
+        <v>0.0565608087982479</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1149801786295679</v>
+        <v>0.1127060390428373</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>63</v>
@@ -1001,19 +1001,19 @@
         <v>65005</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>50598</v>
+        <v>50509</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>82953</v>
+        <v>82073</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08757935927331909</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06816996102955247</v>
+        <v>0.06804909507870689</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1117604694194451</v>
+        <v>0.1105746154495739</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>338703</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>326193</v>
+        <v>326515</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>348440</v>
+        <v>348573</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9074392494378036</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8739247001142658</v>
+        <v>0.8747858785701356</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9335265870599635</v>
+        <v>0.9338837395723266</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>319</v>
@@ -1051,19 +1051,19 @@
         <v>338532</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>326563</v>
+        <v>327402</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>347778</v>
+        <v>348119</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.917459566395081</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8850198213704321</v>
+        <v>0.887293960957163</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9425157242309691</v>
+        <v>0.9434391912017525</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>637</v>
@@ -1072,19 +1072,19 @@
         <v>677235</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>659287</v>
+        <v>660167</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>691642</v>
+        <v>691731</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9124206407266809</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8882395305805549</v>
+        <v>0.8894253845504261</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9318300389704477</v>
+        <v>0.9319509049212932</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>55029</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42698</v>
+        <v>41432</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>70719</v>
+        <v>70994</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1064239113942912</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08257752962487698</v>
+        <v>0.08012941617998627</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1367692851658031</v>
+        <v>0.1373017135493499</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1197,19 +1197,19 @@
         <v>14987</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8969</v>
+        <v>8691</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23913</v>
+        <v>23676</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0906977802169487</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05427945045089018</v>
+        <v>0.05259758714389841</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1447165030030814</v>
+        <v>0.1432801289405904</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>68</v>
@@ -1218,19 +1218,19 @@
         <v>70015</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>56537</v>
+        <v>55006</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>88458</v>
+        <v>86639</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1026153587892068</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0828611692761341</v>
+        <v>0.0806180401079301</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1296454449767092</v>
+        <v>0.1269795991713624</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>462040</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>446350</v>
+        <v>446075</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>474371</v>
+        <v>475637</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8935760886057088</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8632307148341969</v>
+        <v>0.8626982864506501</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.917422470375123</v>
+        <v>0.9198705838200137</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>137</v>
@@ -1268,19 +1268,19 @@
         <v>150255</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>141329</v>
+        <v>141566</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>156273</v>
+        <v>156551</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9093022197830513</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8552834969969186</v>
+        <v>0.8567198710594096</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9457205495491099</v>
+        <v>0.9474024128561016</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>582</v>
@@ -1289,19 +1289,19 @@
         <v>612295</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>593852</v>
+        <v>595671</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>625773</v>
+        <v>627304</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8973846412107932</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8703545550232905</v>
+        <v>0.873020400828638</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9171388307238658</v>
+        <v>0.9193819598920699</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>142408</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>120912</v>
+        <v>122637</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>164304</v>
+        <v>166811</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1243236545780088</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.105557877755237</v>
+        <v>0.1070636969464303</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1434393970890144</v>
+        <v>0.1456279383258351</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>92</v>
@@ -1414,19 +1414,19 @@
         <v>92617</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>76027</v>
+        <v>75885</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>112026</v>
+        <v>111628</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1125296724722378</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09237271364906532</v>
+        <v>0.09219992890021791</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1361120041300511</v>
+        <v>0.1356279296206616</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>231</v>
@@ -1435,19 +1435,19 @@
         <v>235025</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>207474</v>
+        <v>209750</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>265975</v>
+        <v>262962</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1193925083750336</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1053966404814661</v>
+        <v>0.1065528778677276</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1351153362803508</v>
+        <v>0.1335846419703467</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>1003052</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>981156</v>
+        <v>978649</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1024548</v>
+        <v>1022823</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8756763454219912</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8565606029109855</v>
+        <v>0.8543720616741651</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8944421222447629</v>
+        <v>0.8929363030535701</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>703</v>
@@ -1485,19 +1485,19 @@
         <v>730429</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>711020</v>
+        <v>711418</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>747019</v>
+        <v>747161</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8874703275277621</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8638879958699489</v>
+        <v>0.8643720703793384</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9076272863509345</v>
+        <v>0.907800071099782</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1663</v>
@@ -1506,19 +1506,19 @@
         <v>1733481</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1702531</v>
+        <v>1705544</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1761032</v>
+        <v>1758756</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8806074916249664</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8648846637196488</v>
+        <v>0.8664153580296531</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8946033595185339</v>
+        <v>0.8934471221322723</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>92580</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>75831</v>
+        <v>75712</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>112537</v>
+        <v>111871</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1505199081506755</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1232878758404853</v>
+        <v>0.1230953883395291</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1829668349428998</v>
+        <v>0.1818827336124079</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>52</v>
@@ -1631,19 +1631,19 @@
         <v>54014</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>40619</v>
+        <v>40371</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>69118</v>
+        <v>68457</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07338930149201001</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05518954928368912</v>
+        <v>0.05485250618745365</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09391251179672329</v>
+        <v>0.0930136998189595</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>139</v>
@@ -1652,19 +1652,19 @@
         <v>146594</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>122306</v>
+        <v>125416</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>169144</v>
+        <v>172950</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1085030646802758</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09052581046839349</v>
+        <v>0.09282764653534482</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.125193551747418</v>
+        <v>0.1280104760605326</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>522490</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>502533</v>
+        <v>503199</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>539239</v>
+        <v>539358</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8494800918493245</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8170331650571002</v>
+        <v>0.8181172663875921</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8767121241595146</v>
+        <v>0.876904611660471</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>645</v>
@@ -1702,19 +1702,19 @@
         <v>681974</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>666870</v>
+        <v>667531</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>695369</v>
+        <v>695617</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.92661069850799</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9060874882032767</v>
+        <v>0.9069863001810402</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9448104507163108</v>
+        <v>0.945147493812546</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1150</v>
@@ -1723,19 +1723,19 @@
         <v>1204464</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1181914</v>
+        <v>1178108</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1228752</v>
+        <v>1225642</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8914969353197242</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.874806448252582</v>
+        <v>0.8719895239394674</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9094741895316067</v>
+        <v>0.9071723534646552</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>67055</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>54363</v>
+        <v>53034</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>82302</v>
+        <v>82153</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2335216527507138</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.189321649478211</v>
+        <v>0.1846940528715173</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2866230453781216</v>
+        <v>0.2861038250020996</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>68</v>
@@ -1848,19 +1848,19 @@
         <v>68610</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>53351</v>
+        <v>54923</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>85497</v>
+        <v>88100</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06410936808728809</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0498514477602951</v>
+        <v>0.05131991208187436</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07988850258837216</v>
+        <v>0.08232059164582343</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>134</v>
@@ -1869,19 +1869,19 @@
         <v>135665</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>116042</v>
+        <v>113749</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>161767</v>
+        <v>159996</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0999483038966998</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08549154117518246</v>
+        <v>0.08380206756249668</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1191788160659494</v>
+        <v>0.1178737815183253</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>220090</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>204843</v>
+        <v>204992</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>232782</v>
+        <v>234111</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7664783472492862</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7133769546218784</v>
+        <v>0.7138961749979004</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8106783505217889</v>
+        <v>0.8153059471284827</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>916</v>
@@ -1919,19 +1919,19 @@
         <v>1001593</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>984706</v>
+        <v>982103</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1016852</v>
+        <v>1015280</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9358906319127119</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9201114974116279</v>
+        <v>0.9176794083541767</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.950148552239705</v>
+        <v>0.9486800879181256</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1122</v>
@@ -1940,19 +1940,19 @@
         <v>1221683</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1195581</v>
+        <v>1197352</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1241306</v>
+        <v>1243599</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9000516961033002</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8808211839340506</v>
+        <v>0.8821262184816739</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9145084588248173</v>
+        <v>0.9161979324375032</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>417804</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>381730</v>
+        <v>381949</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>459345</v>
+        <v>458536</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1241566076323672</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.113436611172968</v>
+        <v>0.1135018405258142</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1365012087267637</v>
+        <v>0.1362607834538343</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>273</v>
@@ -2065,19 +2065,19 @@
         <v>276303</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>243322</v>
+        <v>247278</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>307584</v>
+        <v>307340</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07875925887262825</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06935799961624416</v>
+        <v>0.07048587601316719</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08767564470887673</v>
+        <v>0.08760624177424148</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>677</v>
@@ -2086,19 +2086,19 @@
         <v>694107</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>646351</v>
+        <v>644387</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>742040</v>
+        <v>746971</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1009854807866918</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09403749890117993</v>
+        <v>0.09375174041569481</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1079592545508164</v>
+        <v>0.1086766015645529</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>2947333</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2905792</v>
+        <v>2906601</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2983407</v>
+        <v>2983188</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8758433923676329</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8634987912732363</v>
+        <v>0.8637392165461658</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.886563388827032</v>
+        <v>0.8864981594741859</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3034</v>
@@ -2136,19 +2136,19 @@
         <v>3231896</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3200615</v>
+        <v>3200859</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3264877</v>
+        <v>3260921</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9212407411273718</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9123243552911233</v>
+        <v>0.9123937582257586</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9306420003837559</v>
+        <v>0.9295141239868329</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5836</v>
@@ -2157,19 +2157,19 @@
         <v>6179229</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6131296</v>
+        <v>6126365</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6226985</v>
+        <v>6228949</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8990145192133082</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8920407454491835</v>
+        <v>0.8913233984354471</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9059625010988201</v>
+        <v>0.9062482595843051</v>
       </c>
     </row>
     <row r="24">
@@ -2503,19 +2503,19 @@
         <v>28497</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18275</v>
+        <v>17815</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40917</v>
+        <v>41570</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0517544653040246</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03318967845017617</v>
+        <v>0.03235534642577172</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07431129833605371</v>
+        <v>0.07549785097625523</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -2524,19 +2524,19 @@
         <v>11963</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6738</v>
+        <v>6727</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19080</v>
+        <v>19531</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02457385419123951</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01384022197368692</v>
+        <v>0.01381741197809122</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03919266211956972</v>
+        <v>0.04011802454226768</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -2545,19 +2545,19 @@
         <v>40460</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29183</v>
+        <v>29481</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>55389</v>
+        <v>57414</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03899967951630733</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02812934555905284</v>
+        <v>0.02841695739594696</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05338917611325027</v>
+        <v>0.05534091700337739</v>
       </c>
     </row>
     <row r="5">
@@ -2574,19 +2574,19 @@
         <v>522121</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>509701</v>
+        <v>509048</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>532343</v>
+        <v>532803</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9482455346959755</v>
+        <v>0.9482455346959754</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9256887016639461</v>
+        <v>0.9245021490237449</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9668103215498238</v>
+        <v>0.967644653574229</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>669</v>
@@ -2595,19 +2595,19 @@
         <v>474873</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>467756</v>
+        <v>467305</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>480098</v>
+        <v>480109</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9754261458087605</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.96080733788043</v>
+        <v>0.9598819754577321</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.986159778026313</v>
+        <v>0.9861825880219087</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1199</v>
@@ -2616,19 +2616,19 @@
         <v>996995</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>982066</v>
+        <v>980041</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1008272</v>
+        <v>1007974</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9610003204836928</v>
+        <v>0.9610003204836927</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.94661082388675</v>
+        <v>0.9446590829966227</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9718706544409472</v>
+        <v>0.9715830426040531</v>
       </c>
     </row>
     <row r="6">
@@ -2720,19 +2720,19 @@
         <v>26976</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16051</v>
+        <v>17007</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46139</v>
+        <v>42533</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05582663358023859</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03321779891658075</v>
+        <v>0.03519671369429219</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09548443776781138</v>
+        <v>0.08802126302498942</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -2741,19 +2741,19 @@
         <v>20363</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12337</v>
+        <v>12874</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31703</v>
+        <v>32960</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04832374635065111</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02927671152534072</v>
+        <v>0.03055247835514496</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07523716592363534</v>
+        <v>0.07821906655289237</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>40</v>
@@ -2762,19 +2762,19 @@
         <v>47339</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>34154</v>
+        <v>33379</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>68340</v>
+        <v>67970</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05233161434337159</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03775617230744551</v>
+        <v>0.03689923211669406</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07554805128950777</v>
+        <v>0.07513867030112016</v>
       </c>
     </row>
     <row r="8">
@@ -2791,19 +2791,19 @@
         <v>456236</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>437073</v>
+        <v>440679</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>467161</v>
+        <v>466205</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9441733664197615</v>
+        <v>0.9441733664197612</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9045155622321887</v>
+        <v>0.9119787369750109</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9667822010834192</v>
+        <v>0.9648032863057079</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>566</v>
@@ -2812,19 +2812,19 @@
         <v>401017</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>389677</v>
+        <v>388420</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>409043</v>
+        <v>408506</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9516762536493489</v>
+        <v>0.9516762536493488</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9247628340763646</v>
+        <v>0.9217809334471074</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9707232884746592</v>
+        <v>0.9694475216448549</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1028</v>
@@ -2833,19 +2833,19 @@
         <v>857253</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>836252</v>
+        <v>836622</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>870438</v>
+        <v>871213</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9476683856566286</v>
+        <v>0.9476683856566285</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.924451948710492</v>
+        <v>0.9248613296988796</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9622438276925543</v>
+        <v>0.9631007678833059</v>
       </c>
     </row>
     <row r="9">
@@ -2937,19 +2937,19 @@
         <v>33803</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22317</v>
+        <v>22802</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49863</v>
+        <v>49782</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07208244369182144</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04758915805508359</v>
+        <v>0.0486238600130666</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1063302424195531</v>
+        <v>0.1061579714032675</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -2958,19 +2958,19 @@
         <v>4344</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1573</v>
+        <v>1620</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9049</v>
+        <v>8707</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02316753052792256</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008389466436774996</v>
+        <v>0.008639595580726024</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04826125953702232</v>
+        <v>0.04643566059098207</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -2979,19 +2979,19 @@
         <v>38147</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25597</v>
+        <v>26330</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>54583</v>
+        <v>53202</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05811108590026032</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03899288352440618</v>
+        <v>0.04010970010304186</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08314980239617818</v>
+        <v>0.08104627856592478</v>
       </c>
     </row>
     <row r="11">
@@ -3008,19 +3008,19 @@
         <v>435144</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>419084</v>
+        <v>419165</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>446630</v>
+        <v>446145</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9279175563081786</v>
+        <v>0.9279175563081787</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8936697575804471</v>
+        <v>0.8938420285967335</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9524108419449162</v>
+        <v>0.9513761399869337</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>283</v>
@@ -3029,19 +3029,19 @@
         <v>183153</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>178448</v>
+        <v>178790</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>185924</v>
+        <v>185877</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9768324694720775</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9517387404629778</v>
+        <v>0.9535643394090174</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.991610533563225</v>
+        <v>0.9913604044192734</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>740</v>
@@ -3050,19 +3050,19 @@
         <v>618297</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>601861</v>
+        <v>603242</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>630847</v>
+        <v>630114</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9418889140997397</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9168501976038219</v>
+        <v>0.9189537214340755</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9610071164755938</v>
+        <v>0.9598902998969582</v>
       </c>
     </row>
     <row r="12">
@@ -3154,19 +3154,19 @@
         <v>99466</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>78760</v>
+        <v>79841</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>123926</v>
+        <v>126173</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08787996490022258</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06958537740734223</v>
+        <v>0.07054053007360803</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1094904500685863</v>
+        <v>0.1114761267172776</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -3175,19 +3175,19 @@
         <v>38235</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27596</v>
+        <v>28160</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>52064</v>
+        <v>52573</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04453741321322487</v>
+        <v>0.04453741321322488</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03214430583931805</v>
+        <v>0.03280178818824039</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06064554326202302</v>
+        <v>0.06123832747118654</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>119</v>
@@ -3196,19 +3196,19 @@
         <v>137702</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>113371</v>
+        <v>113959</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>165079</v>
+        <v>165361</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06918493122459715</v>
+        <v>0.06918493122459717</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05696042583409291</v>
+        <v>0.05725587769281491</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08293989621200795</v>
+        <v>0.0830815373077053</v>
       </c>
     </row>
     <row r="14">
@@ -3225,19 +3225,19 @@
         <v>1032377</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1007917</v>
+        <v>1005670</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1053083</v>
+        <v>1052002</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9121200350997773</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8905095499314137</v>
+        <v>0.8885238732827222</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9304146225926578</v>
+        <v>0.9294594699263919</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1184</v>
@@ -3246,19 +3246,19 @@
         <v>820263</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>806434</v>
+        <v>805925</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>830902</v>
+        <v>830338</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9554625867867752</v>
+        <v>0.9554625867867751</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9393544567379771</v>
+        <v>0.9387616725288134</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9678556941606818</v>
+        <v>0.9671982118117595</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2225</v>
@@ -3267,19 +3267,19 @@
         <v>1852639</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1825262</v>
+        <v>1824980</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1876970</v>
+        <v>1876382</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9308150687754029</v>
+        <v>0.9308150687754028</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9170601037879921</v>
+        <v>0.9169184626922948</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9430395741659073</v>
+        <v>0.9427441223071855</v>
       </c>
     </row>
     <row r="15">
@@ -3371,19 +3371,19 @@
         <v>39434</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26833</v>
+        <v>28385</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>53736</v>
+        <v>54629</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06960336379622603</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04736159221336012</v>
+        <v>0.05010096253707121</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0948482260137985</v>
+        <v>0.09642519970335423</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -3392,19 +3392,19 @@
         <v>26407</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18171</v>
+        <v>18279</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36102</v>
+        <v>35943</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03182891113250338</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02190156267491651</v>
+        <v>0.02203256928915919</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04351482314178527</v>
+        <v>0.04332253358045895</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>68</v>
@@ -3413,19 +3413,19 @@
         <v>65841</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>51118</v>
+        <v>51213</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>84703</v>
+        <v>85781</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.04715690556729824</v>
+        <v>0.04715690556729822</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.036611985687952</v>
+        <v>0.0366803548840982</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06066658656099887</v>
+        <v>0.06143845653419724</v>
       </c>
     </row>
     <row r="17">
@@ -3442,19 +3442,19 @@
         <v>527113</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>512811</v>
+        <v>511918</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>539714</v>
+        <v>538162</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9303966362037739</v>
+        <v>0.9303966362037741</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9051517739862015</v>
+        <v>0.9035748002966459</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9526384077866394</v>
+        <v>0.9498990374629286</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1253</v>
@@ -3463,19 +3463,19 @@
         <v>803249</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>793554</v>
+        <v>793713</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>811485</v>
+        <v>811377</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9681710888674966</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9564851768582143</v>
+        <v>0.956677466419541</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9780984373250834</v>
+        <v>0.9779674307108408</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1765</v>
@@ -3484,19 +3484,19 @@
         <v>1330362</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1311500</v>
+        <v>1310422</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1345085</v>
+        <v>1344990</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9528430944327017</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9393334134390009</v>
+        <v>0.9385615434658028</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9633880143120479</v>
+        <v>0.9633196451159016</v>
       </c>
     </row>
     <row r="18">
@@ -3588,19 +3588,19 @@
         <v>27772</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15052</v>
+        <v>15123</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>44820</v>
+        <v>47365</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1170667378872871</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06344753003793489</v>
+        <v>0.06374788879100463</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1889305891880986</v>
+        <v>0.1996596145177923</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>35</v>
@@ -3609,19 +3609,19 @@
         <v>37969</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>26759</v>
+        <v>26670</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>55752</v>
+        <v>55768</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04508121509014556</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03177213456389837</v>
+        <v>0.03166559241270606</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06619578072716406</v>
+        <v>0.06621559860654823</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>47</v>
@@ -3630,19 +3630,19 @@
         <v>65740</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>47483</v>
+        <v>47840</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>88684</v>
+        <v>90983</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.06090122630319678</v>
+        <v>0.06090122630319676</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04398833238824555</v>
+        <v>0.04431914365934595</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08215682525922231</v>
+        <v>0.08428591382236666</v>
       </c>
     </row>
     <row r="20">
@@ -3659,19 +3659,19 @@
         <v>209456</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>192408</v>
+        <v>189863</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>222176</v>
+        <v>222105</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8829332621127129</v>
+        <v>0.8829332621127128</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8110694108119015</v>
+        <v>0.8003403854822079</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9365524699620651</v>
+        <v>0.9362521112089958</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1122</v>
@@ -3680,19 +3680,19 @@
         <v>804256</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>786473</v>
+        <v>786457</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>815466</v>
+        <v>815555</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9549187849098545</v>
+        <v>0.9549187849098544</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9338042192728353</v>
+        <v>0.9337844013934518</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9682278654361015</v>
+        <v>0.9683344075872939</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1222</v>
@@ -3701,19 +3701,19 @@
         <v>1013713</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>990769</v>
+        <v>988470</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1031970</v>
+        <v>1031613</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9390987736968032</v>
+        <v>0.9390987736968031</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9178431747407784</v>
+        <v>0.9157140861776331</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.956011667611755</v>
+        <v>0.9556808563406538</v>
       </c>
     </row>
     <row r="21">
@@ -3805,19 +3805,19 @@
         <v>255947</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>219213</v>
+        <v>219043</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>295221</v>
+        <v>295452</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07443800892042617</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06375445789135341</v>
+        <v>0.06370493463118765</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08586003960285007</v>
+        <v>0.08592730892171016</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>154</v>
@@ -3826,19 +3826,19 @@
         <v>139281</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>117884</v>
+        <v>116628</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>166749</v>
+        <v>162049</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03841071442713993</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03250987162719568</v>
+        <v>0.03216341916059776</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04598599249661078</v>
+        <v>0.04468971609948132</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>347</v>
@@ -3847,19 +3847,19 @@
         <v>395228</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>352603</v>
+        <v>352133</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>443863</v>
+        <v>442448</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.05594575019259385</v>
+        <v>0.05594575019259386</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04991199601669816</v>
+        <v>0.04984546948146896</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06283014833003896</v>
+        <v>0.06262991042272846</v>
       </c>
     </row>
     <row r="23">
@@ -3876,19 +3876,19 @@
         <v>3182447</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3143173</v>
+        <v>3142942</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3219181</v>
+        <v>3219351</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9255619910795738</v>
+        <v>0.9255619910795739</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.91413996039715</v>
+        <v>0.9140726910782896</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9362455421086464</v>
+        <v>0.9362950653688121</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5077</v>
@@ -3897,19 +3897,19 @@
         <v>3486812</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3459344</v>
+        <v>3464044</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3508209</v>
+        <v>3509465</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9615892855728601</v>
+        <v>0.9615892855728602</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9540140075033888</v>
+        <v>0.9553102839005189</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9674901283728043</v>
+        <v>0.9678365808394025</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8179</v>
@@ -3918,19 +3918,19 @@
         <v>6669259</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6620624</v>
+        <v>6622039</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6711884</v>
+        <v>6712354</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.944054249807406</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9371698516699613</v>
+        <v>0.9373700895772713</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9500880039833018</v>
+        <v>0.950154530518531</v>
       </c>
     </row>
     <row r="24">
